--- a/港股美股账户记录/打新记录.xlsx
+++ b/港股美股账户记录/打新记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/mm/港股美股账户记录/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE06B4-DB3D-CF49-B6AA-220D7C91CD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9048950-CED0-6245-9BF6-39BE993D8087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
   <si>
     <t>申购新股</t>
   </si>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>未卖出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>-124</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -328,9 +324,6 @@
   </si>
   <si>
     <t>25000+240$</t>
-  </si>
-  <si>
-    <t>25000+240$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -342,16 +335,10 @@
   </si>
   <si>
     <t>10600+260$</t>
-  </si>
-  <si>
-    <t>10600+260$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>500+191$</t>
-  </si>
-  <si>
-    <t>500+191$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -408,6 +395,58 @@
   </si>
   <si>
     <t>购入200股，成本价9.38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.2.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000+276$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7481+201$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1559+271$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4700$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺辉健康</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1手融</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1手现金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10手融</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38套餐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.2.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-635</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1021,54 +1060,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,15 +1136,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,35 +1144,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2374,7 +2422,8 @@
     <col min="5" max="5" width="14.33203125" style="34" customWidth="1"/>
     <col min="6" max="15" width="10.83203125" style="34" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="31" customWidth="1"/>
-    <col min="17" max="34" width="10.83203125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="34" customWidth="1"/>
+    <col min="18" max="34" width="10.83203125" style="34" customWidth="1"/>
     <col min="35" max="35" width="19.5" style="34" customWidth="1"/>
     <col min="36" max="36" width="10.83203125" style="34" customWidth="1"/>
     <col min="37" max="16384" width="10.83203125" style="34"/>
@@ -2387,43 +2436,43 @@
       <c r="B1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="89">
+      <c r="C1" s="73">
         <v>57000</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
+      <c r="D1" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
     </row>
     <row r="2" spans="1:35" ht="20" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -2432,41 +2481,41 @@
       <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="89">
+      <c r="C2" s="73">
         <v>12600</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
     </row>
     <row r="3" spans="1:35" ht="20" customHeight="1">
       <c r="A3" s="42"/>
@@ -2476,500 +2525,510 @@
       <c r="C3" s="39">
         <v>15545</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
     </row>
     <row r="4" spans="1:35" ht="20" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="72" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="39">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
     </row>
     <row r="5" spans="1:35" ht="20" customHeight="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="73"/>
+      <c r="B5" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="105" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="20" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114"/>
-      <c r="AF6" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG6" s="115"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="73"/>
-    </row>
-    <row r="7" spans="1:35" s="30" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="101" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="45"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="101"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="106"/>
+    </row>
+    <row r="7" spans="1:35" ht="20" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" s="109"/>
-      <c r="T7" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD7" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG7" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="73"/>
+        <v>93</v>
+      </c>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="106"/>
     </row>
     <row r="8" spans="1:35" s="30" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="41"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="105"/>
-      <c r="N8" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="109"/>
-      <c r="T8" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" s="117"/>
-      <c r="W8" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="X8" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="73"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="93"/>
+      <c r="T8" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG8" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="106"/>
     </row>
     <row r="9" spans="1:35" s="30" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="93"/>
+      <c r="T9" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="98"/>
+      <c r="W9" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD9" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG9" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="106"/>
+    </row>
+    <row r="10" spans="1:35" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="85">
+        <v>25000</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="87">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="101">
-        <v>25000</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102">
-        <v>16000</v>
-      </c>
-      <c r="I9" s="103">
-        <v>16000</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="105">
+      <c r="L10" s="89">
         <v>150</v>
       </c>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="107">
-        <v>500</v>
-      </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="109">
-        <v>10600</v>
-      </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117">
-        <v>9995</v>
-      </c>
-      <c r="U9" s="117">
-        <v>9995</v>
-      </c>
-      <c r="V9" s="117"/>
-      <c r="W9" s="110">
+      <c r="M10" s="89"/>
+      <c r="N10" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="91">
+        <v>7481</v>
+      </c>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="93">
+        <v>1559</v>
+      </c>
+      <c r="S10" s="93"/>
+      <c r="T10" s="98">
+        <v>9700</v>
+      </c>
+      <c r="U10" s="98">
+        <v>9700</v>
+      </c>
+      <c r="V10" s="98"/>
+      <c r="W10" s="94">
         <v>14000</v>
       </c>
-      <c r="X9" s="110">
+      <c r="X10" s="94">
         <v>14000</v>
       </c>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="73"/>
-    </row>
-    <row r="10" spans="1:35" ht="20" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="32" t="s">
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="106"/>
+    </row>
+    <row r="11" spans="1:35" ht="20" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="73"/>
-    </row>
-    <row r="11" spans="1:35" ht="20" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
@@ -2979,36 +3038,30 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="49"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="106"/>
     </row>
     <row r="12" spans="1:35" ht="20" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="15">
-        <v>-50</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="33">
-        <v>-50</v>
-      </c>
-      <c r="G12" s="33">
-        <v>-50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -3030,26 +3083,26 @@
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="26"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
       <c r="AI12" s="49"/>
     </row>
     <row r="13" spans="1:35" ht="20" customHeight="1">
       <c r="A13" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15">
-        <v>-99</v>
+        <v>-50</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>18</v>
@@ -3057,18 +3110,12 @@
       <c r="F13" s="33">
         <v>-50</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="33">
         <v>-50</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="18">
-        <v>-49</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -3087,39 +3134,45 @@
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
       <c r="AI13" s="49"/>
     </row>
     <row r="14" spans="1:35" ht="20" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="33">
+        <v>-50</v>
+      </c>
+      <c r="G14" s="16">
+        <v>-50</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="18">
+        <v>-49</v>
+      </c>
+      <c r="J14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -3138,74 +3191,48 @@
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="50" t="s">
-        <v>24</v>
-      </c>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="49"/>
     </row>
     <row r="15" spans="1:35" ht="20" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="15">
-        <v>3025</v>
+        <v>0</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="33">
-        <v>-50</v>
-      </c>
-      <c r="G15" s="33">
-        <v>-50</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="18">
-        <v>-49</v>
-      </c>
-      <c r="J15" s="65">
-        <v>900</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="36">
-        <v>-25</v>
-      </c>
-      <c r="M15" s="36">
-        <v>-25</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="38">
-        <v>-50</v>
-      </c>
-      <c r="P15" s="37">
-        <v>-50</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="23">
         <v>0</v>
       </c>
-      <c r="S15" s="67">
-        <v>2300</v>
-      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
@@ -3215,28 +3242,28 @@
       <c r="Z15" s="26"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="51">
-        <v>0.4</v>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="20" customHeight="1">
-      <c r="A16" s="52">
-        <v>44173</v>
+      <c r="A16" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D16" s="15">
-        <v>-50</v>
+        <v>3025</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>18</v>
@@ -3244,25 +3271,45 @@
       <c r="F16" s="33">
         <v>-50</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="33">
         <v>-50</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="37"/>
+      <c r="H16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="18">
+        <v>-49</v>
+      </c>
+      <c r="J16" s="65">
+        <v>900</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="36">
+        <v>-25</v>
+      </c>
+      <c r="M16" s="36">
+        <v>-25</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="38">
+        <v>-50</v>
+      </c>
+      <c r="P16" s="37">
+        <v>-50</v>
+      </c>
       <c r="Q16" s="22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R16" s="23">
         <v>0</v>
       </c>
-      <c r="S16" s="29"/>
+      <c r="S16" s="67">
+        <v>2300</v>
+      </c>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
@@ -3272,65 +3319,53 @@
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="49"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="51">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="17" spans="1:35" ht="20" customHeight="1">
-      <c r="A17" s="53">
-        <v>44174</v>
+      <c r="A17" s="52">
+        <v>44173</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="15">
-        <v>-124</v>
+        <v>-50</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F17" s="33">
         <v>-50</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="16">
         <v>-50</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="18">
-        <v>-49</v>
-      </c>
-      <c r="J17" s="18">
-        <v>-49</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="36">
-        <v>-25</v>
-      </c>
-      <c r="M17" s="36">
-        <v>-25</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="38">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="23">
         <v>0</v>
       </c>
-      <c r="P17" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
@@ -3341,48 +3376,66 @@
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
       <c r="AI17" s="49"/>
     </row>
     <row r="18" spans="1:35" ht="20" customHeight="1">
       <c r="A18" s="53">
-        <v>44181</v>
+        <v>44174</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="15">
+        <v>-124</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="33">
+        <v>-50</v>
+      </c>
+      <c r="G18" s="33">
+        <v>-50</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="18">
+        <v>-49</v>
+      </c>
+      <c r="J18" s="18">
+        <v>-49</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="36">
+        <v>-25</v>
+      </c>
+      <c r="M18" s="36">
+        <v>-25</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="38">
         <v>0</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="23">
+      <c r="P18" s="37">
         <v>0</v>
       </c>
-      <c r="S18" s="23">
-        <v>0</v>
-      </c>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
@@ -3392,12 +3445,12 @@
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
       <c r="AI18" s="49"/>
     </row>
     <row r="19" spans="1:35" ht="20" customHeight="1">
@@ -3405,41 +3458,23 @@
         <v>44181</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="33">
-        <v>-50</v>
-      </c>
-      <c r="G19" s="16">
-        <v>-50</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="18">
-        <v>-49</v>
-      </c>
-      <c r="J19" s="18">
-        <v>-49</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="36">
-        <v>-25</v>
-      </c>
-      <c r="M19" s="36">
-        <v>-25</v>
-      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="37"/>
@@ -3461,26 +3496,26 @@
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
       <c r="AI19" s="49"/>
     </row>
     <row r="20" spans="1:35" ht="20" customHeight="1">
       <c r="A20" s="53">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>18</v>
@@ -3509,15 +3544,9 @@
       <c r="M20" s="36">
         <v>-25</v>
       </c>
-      <c r="N20" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="38">
-        <v>-50</v>
-      </c>
-      <c r="P20" s="37">
-        <v>-50</v>
-      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="22" t="s">
         <v>18</v>
       </c>
@@ -3536,30 +3565,36 @@
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
       <c r="AI20" s="49"/>
     </row>
     <row r="21" spans="1:35" ht="20" customHeight="1">
       <c r="A21" s="53">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="33">
+        <v>-50</v>
+      </c>
+      <c r="G21" s="16">
+        <v>-50</v>
+      </c>
       <c r="H21" s="17" t="s">
         <v>18</v>
       </c>
@@ -3569,15 +3604,33 @@
       <c r="J21" s="18">
         <v>-49</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="K21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="36">
+        <v>-25</v>
+      </c>
+      <c r="M21" s="36">
+        <v>-25</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="38">
+        <v>-50</v>
+      </c>
+      <c r="P21" s="37">
+        <v>-50</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="23">
+        <v>0</v>
+      </c>
+      <c r="S21" s="23">
+        <v>0</v>
+      </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
@@ -3587,48 +3640,48 @@
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
       <c r="AI21" s="49"/>
     </row>
     <row r="22" spans="1:35" ht="20" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>68</v>
+      <c r="A22" s="53">
+        <v>44187</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
+      <c r="H22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="18">
+        <v>-49</v>
+      </c>
+      <c r="J22" s="18">
+        <v>-49</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="37"/>
-      <c r="Q22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="23">
-        <v>0</v>
-      </c>
-      <c r="S22" s="23">
-        <v>0</v>
-      </c>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
@@ -3638,54 +3691,48 @@
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
       <c r="AI22" s="49"/>
     </row>
     <row r="23" spans="1:35" ht="20" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>63</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="21">
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="23">
         <v>0</v>
       </c>
-      <c r="P23" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="S23" s="23">
+        <v>0</v>
+      </c>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
@@ -3695,102 +3742,102 @@
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
       <c r="AI23" s="49"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>72</v>
+      <c r="A24" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="58">
-        <v>-50</v>
-      </c>
-      <c r="G24" s="58">
-        <v>-50</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="56">
-        <v>-49</v>
-      </c>
-      <c r="J24" s="66">
-        <v>3594</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="36">
-        <v>-25</v>
-      </c>
-      <c r="M24" s="36">
-        <v>-25</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="38">
-        <v>-50</v>
-      </c>
-      <c r="P24" s="37">
-        <v>-50</v>
-      </c>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
+        <v>81</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
       <c r="AI24" s="49"/>
     </row>
     <row r="25" spans="1:35" ht="20" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>72</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+        <v>82</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="58">
+        <v>-50</v>
+      </c>
+      <c r="G25" s="58">
+        <v>-50</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="56">
+        <v>-49</v>
+      </c>
+      <c r="J25" s="66">
+        <v>3594</v>
+      </c>
       <c r="K25" s="35" t="s">
         <v>18</v>
       </c>
@@ -3821,197 +3868,330 @@
       <c r="Z25" s="62"/>
       <c r="AA25" s="62"/>
       <c r="AB25" s="62"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
       <c r="AI25" s="49"/>
     </row>
     <row r="26" spans="1:35" ht="20" customHeight="1">
       <c r="A26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="36">
+        <v>-25</v>
+      </c>
+      <c r="M26" s="36">
+        <v>-25</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="38">
+        <v>-50</v>
+      </c>
+      <c r="P26" s="37">
+        <v>-50</v>
+      </c>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="49"/>
+    </row>
+    <row r="27" spans="1:35" ht="20" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F27" s="34">
         <v>0</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="20" customHeight="1">
-      <c r="A42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="88">
+      <c r="G27" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="20" customHeight="1">
+      <c r="A28" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="34">
+        <v>-100</v>
+      </c>
+      <c r="G28" s="34">
+        <v>-109.25</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="34">
+        <v>-49</v>
+      </c>
+      <c r="J28" s="34">
+        <v>-49</v>
+      </c>
+      <c r="N28" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" s="34">
+        <v>-97.63</v>
+      </c>
+      <c r="Q28" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="R28" s="34">
+        <v>-100</v>
+      </c>
+      <c r="S28" s="34">
+        <v>-108.3</v>
+      </c>
+      <c r="T28" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="U28" s="34">
+        <f>-38*7</f>
+        <v>-266</v>
+      </c>
+      <c r="V28" s="34">
+        <v>-266</v>
+      </c>
+      <c r="W28" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="X28" s="34">
+        <v>-5</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="20" customHeight="1">
+      <c r="E30" s="34">
+        <f>F10+I10+L10+O10+R10+U10+X10</f>
+        <v>73890</v>
+      </c>
+      <c r="F30" s="34">
+        <f>276+260+201+4700+1400</f>
+        <v>6837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="20" customHeight="1">
+      <c r="A43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="72">
         <f>SUM(C1:C3)</f>
         <v>85145</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="Q43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="R43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="W43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="X43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD43" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG43" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="20" customHeight="1">
+      <c r="E44" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="R42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="X42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG42" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" ht="20" customHeight="1">
-      <c r="E43" s="30" t="s">
+      <c r="F44" s="34">
+        <v>25000</v>
+      </c>
+      <c r="H44" s="34">
+        <v>16000</v>
+      </c>
+      <c r="I44" s="34">
+        <v>16000</v>
+      </c>
+      <c r="K44" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="34">
-        <v>25000</v>
-      </c>
-      <c r="H43" s="34">
-        <v>16000</v>
-      </c>
-      <c r="I43" s="34">
-        <v>16000</v>
-      </c>
-      <c r="K43" s="30" t="s">
+      <c r="L44" s="34">
+        <v>150</v>
+      </c>
+      <c r="N44" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="34">
-        <v>150</v>
-      </c>
-      <c r="N43" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O43" s="34">
+      <c r="O44" s="34">
         <v>500</v>
       </c>
-      <c r="Q43" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="R43" s="34">
+      <c r="Q44" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="R44" s="34">
         <v>10600</v>
       </c>
-      <c r="T43" s="34">
+      <c r="T44" s="34">
         <v>9995</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U44" s="34">
         <v>9995</v>
       </c>
-      <c r="W43" s="34">
+      <c r="W44" s="34">
         <v>14000</v>
       </c>
-      <c r="X43" s="34">
+      <c r="X44" s="34">
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="20" customHeight="1">
-      <c r="Q44" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="R44" s="90"/>
-      <c r="W44" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="X44" s="90"/>
-    </row>
     <row r="45" spans="1:33" ht="20" customHeight="1">
-      <c r="Q45" s="34">
+      <c r="Q45" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="R45" s="102"/>
+      <c r="W45" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="X45" s="102"/>
+    </row>
+    <row r="46" spans="1:33" ht="20" customHeight="1">
+      <c r="Q46" s="34">
         <v>0</v>
       </c>
-      <c r="R45" s="34">
+      <c r="R46" s="34">
         <v>100</v>
       </c>
-      <c r="W45" s="34">
+      <c r="W46" s="34">
         <v>5</v>
       </c>
-      <c r="X45" s="34">
+      <c r="X46" s="34">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="D1:AI3"/>
+    <mergeCell ref="AI5:AI11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:S5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D1:AI3"/>
-    <mergeCell ref="AI4:AI10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T8:V8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,14 +4227,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4066,8 +4246,8 @@
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="127" t="s">
-        <v>109</v>
+      <c r="D2" s="100" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
@@ -4084,8 +4264,8 @@
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="128" t="s">
-        <v>110</v>
+      <c r="D3" s="101" t="s">
+        <v>106</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>45</v>
@@ -4193,11 +4373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="3"/>
@@ -4205,10 +4385,10 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="125" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4216,26 +4396,26 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.25" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="122"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.25" customHeight="1">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="118" t="s">
-        <v>107</v>
+      <c r="B5" s="129"/>
+      <c r="C5" s="99" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.25" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="118" t="s">
-        <v>108</v>
+      <c r="A6" s="128"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="99" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.25" customHeight="1">
